--- a/excel-sample/products.xlsx
+++ b/excel-sample/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\sample-projects\excel-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D251EE-108E-4DD7-A0FA-66BC4189A4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C9437-A96A-4214-BECF-7BDB326F2A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{EE2F9E37-E976-4373-9B05-EE6535CF7D53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE2F9E37-E976-4373-9B05-EE6535CF7D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,23 +134,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discountPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock</t>
+    <t>상품이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
